--- a/db.xlsx
+++ b/db.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>E-mail</t>
   </si>
@@ -51,6 +51,24 @@
   </si>
   <si>
     <t>null</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>Oliveira</t>
+  </si>
+  <si>
+    <t>loli@empresajunior.com.br</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Andrade</t>
+  </si>
+  <si>
+    <t>pandrade@empresajunior.com.br</t>
   </si>
 </sst>
 </file>
@@ -483,7 +501,7 @@
   <dimension ref="C2:F140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -524,15 +542,27 @@
       </c>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
+      <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.2">
@@ -1342,6 +1372,8 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1"/>
+    <hyperlink ref="E5" r:id="rId2"/>
+    <hyperlink ref="E6" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
